--- a/data/trans_dic/P55_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede irse de vacaciones al menos una semana al año</t>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 98,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72,9%</t>
+          <t>75,85%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>81,1%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>76,46%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78,31%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,59; 88,01</t>
+          <t>58,16; 89,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,7; 76,74</t>
+          <t>54,9; 88,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,52; 81,34</t>
+          <t>61,76; 87,85</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>64,46; 92,36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>65,3; 85,33</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>65,3; 87,52</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>48,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,69%</t>
+          <t>79,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>74,39%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>73,06%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59,95%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>76,78%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,99; 78,14</t>
+          <t>22,88; 70,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,24; 77,4</t>
+          <t>49,07; 94,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,43; 74,19</t>
+          <t>61,56; 84,48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58,87; 84,21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>39,05; 73,47</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56,57; 87,89</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>63,98%</t>
+          <t>80,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,91%</t>
+          <t>76,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68,55%</t>
+          <t>76,6%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77,69%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>78,22%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>77,38%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,68; 77,47</t>
+          <t>67,44; 90,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,95; 80,01</t>
+          <t>63,48; 86,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,85; 75,68</t>
+          <t>67,01; 84,33</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>67,58; 84,88</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>70,45; 84,75</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>70,07; 84,23</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,67%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,47%</t>
+          <t>85,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>66,12%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>65,08%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>73,69%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>75,14%</t>
         </is>
       </c>
     </row>
@@ -729,17 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,71; 86,52</t>
+          <t>71,65; 89,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,6; 66,44</t>
+          <t>76,67; 92,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,55; 73,95</t>
+          <t>56,39; 75,33</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55,01; 74,06</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>66,68; 79,64</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>68,1; 81,09</t>
         </is>
       </c>
     </row>
@@ -756,17 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>71,7%</t>
+          <t>68,33%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>60,64%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>63,31%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>52,8%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>63,83%</t>
         </is>
       </c>
     </row>
@@ -779,17 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>62,18; 78,98</t>
+          <t>55,79; 80,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,98; 69,74</t>
+          <t>60,62; 83,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>59,51; 72,76</t>
+          <t>48,16; 76,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38,35; 67,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57,31; 74,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54,51; 73,33</t>
         </is>
       </c>
     </row>
@@ -806,17 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>74,58%</t>
+          <t>76,62%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55,62%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>81,6%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>66,84%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,99; 86,97</t>
+          <t>74,47; 95,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>59,21; 84,89</t>
+          <t>69,75; 92,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>65,39; 82,89</t>
+          <t>60,16; 88,03</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>34,63; 73,21</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69,88; 88,68</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50,93; 78,64</t>
         </is>
       </c>
     </row>
@@ -856,17 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>72,45%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>66,32%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>69,33%</t>
+          <t>72,5%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67,81%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>72,68%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>73,43%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1120,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>65,7; 77,18</t>
+          <t>61,88; 79,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>61,84; 70,51</t>
+          <t>70,84; 84,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>65,84; 72,78</t>
+          <t>68,35; 77,34</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>61,7; 73,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>66,8; 76,4</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>68,39; 77,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede irse de vacaciones al menos una semana al año (tasa de respuesta: 98,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>98270</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>100969</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>90889</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>117998</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>189159</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>218967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>74184; 114305</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73623; 119232</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>74001; 105272</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>93792; 134379</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>161549; 211092</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>182593; 244720</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73189</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>180861</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91351</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>118637</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>164540</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>299498</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34701; 107113</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111728; 214965</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75592; 103740</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>95586; 136730</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>107180; 201641</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>220650; 342844</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>105561</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>138739</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>149622</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>184519</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>255182</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>323259</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88291; 118595</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>114434; 156688</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>130893; 164716</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>160500; 201600</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>229847; 276488</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>292729; 351891</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>127787</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>172749</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>110644</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>138457</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>238431</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>311206</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>111919; 140104</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>154416; 186364</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94362; 126067</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>117021; 157565</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>215749; 257665</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>282045; 335831</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>83116</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>113837</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>56312</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>72361</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>139427</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>186198</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67863; 97628</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>93740; 129234</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>42835; 67716</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>52565; 92191</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>120687; 156709</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>158996; 213906</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>79056</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>113220</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>84744</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>113523</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>163800</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>226744</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>67124; 86293</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>94225; 125227</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>66546; 97364</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>70693; 149446</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>140286; 178011</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>172776; 266765</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>522.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>566978</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>820376</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>583561</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>745495</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1150539</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1565871</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>481481; 618818</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>731906; 872832</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>550116; 622503</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>678278; 802868</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1057426; 1209453</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1458361; 1648739</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>